--- a/artfynd/A 2085-2023.xlsx
+++ b/artfynd/A 2085-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY3"/>
+  <dimension ref="A1:AY7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -928,6 +928,434 @@
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>112363550</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5135</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>105930</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vågbandad barkbock</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Semanotus undatus</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Suderskog, Gtl</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>721928</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6397835</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bäl</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Per Karlsson Linderum</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Per Karlsson Linderum</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>112363391</v>
+      </c>
+      <c r="B5" t="n">
+        <v>73758</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>6426</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Kattfotslav</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Felipes leucopellaeus</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Suderskog, Gtl</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>721924</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6397845</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bäl</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Per Karlsson Linderum</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Per Karlsson Linderum</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>112363523</v>
+      </c>
+      <c r="B6" t="n">
+        <v>85238</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>3712</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Blå slemspindling</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Cortinarius salor</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Fr.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Suderskog, Gtl</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>721925</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6397844</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Bäl</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Per Karlsson Linderum</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Per Karlsson Linderum</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>112363369</v>
+      </c>
+      <c r="B7" t="n">
+        <v>93539</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2180</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Blåmossa</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Leucobryum glaucum</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Suderskog, Gtl</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>721921</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6397800</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Bäl</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Per Karlsson Linderum</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Per Karlsson Linderum</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 2085-2023.xlsx
+++ b/artfynd/A 2085-2023.xlsx
@@ -930,10 +930,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112363550</v>
+        <v>112363523</v>
       </c>
       <c r="B4" t="n">
-        <v>5135</v>
+        <v>85252</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -946,27 +946,27 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>105930</v>
+        <v>3712</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Blå slemspindling</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Cortinarius salor</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -975,10 +975,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>721928</v>
+        <v>721925</v>
       </c>
       <c r="R4" t="n">
-        <v>6397835</v>
+        <v>6397844</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1040,7 +1040,7 @@
         <v>112363391</v>
       </c>
       <c r="B5" t="n">
-        <v>73758</v>
+        <v>73772</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1144,10 +1144,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112363523</v>
+        <v>112363369</v>
       </c>
       <c r="B6" t="n">
-        <v>85238</v>
+        <v>93553</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1160,27 +1160,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3712</v>
+        <v>2180</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blå slemspindling</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cortinarius salor</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>721925</v>
+        <v>721921</v>
       </c>
       <c r="R6" t="n">
-        <v>6397844</v>
+        <v>6397800</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112363369</v>
+        <v>112363550</v>
       </c>
       <c r="B7" t="n">
-        <v>93539</v>
+        <v>5135</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1267,27 +1267,27 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2180</v>
+        <v>105930</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1296,10 +1296,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>721921</v>
+        <v>721928</v>
       </c>
       <c r="R7" t="n">
-        <v>6397800</v>
+        <v>6397835</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>

--- a/artfynd/A 2085-2023.xlsx
+++ b/artfynd/A 2085-2023.xlsx
@@ -930,10 +930,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112363523</v>
+        <v>112363550</v>
       </c>
       <c r="B4" t="n">
-        <v>85252</v>
+        <v>5135</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -946,27 +946,27 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3712</v>
+        <v>105930</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blå slemspindling</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cortinarius salor</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -975,10 +975,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>721925</v>
+        <v>721928</v>
       </c>
       <c r="R4" t="n">
-        <v>6397844</v>
+        <v>6397835</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112363391</v>
+        <v>112363523</v>
       </c>
       <c r="B5" t="n">
-        <v>73772</v>
+        <v>85252</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1053,27 +1053,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6426</v>
+        <v>3712</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Blå slemspindling</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Cortinarius salor</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bålar</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1082,10 +1082,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>721924</v>
+        <v>721925</v>
       </c>
       <c r="R5" t="n">
-        <v>6397845</v>
+        <v>6397844</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1144,10 +1144,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112363369</v>
+        <v>112363391</v>
       </c>
       <c r="B6" t="n">
-        <v>93553</v>
+        <v>73772</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1160,27 +1160,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2180</v>
+        <v>6426</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>bålar</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>721921</v>
+        <v>721924</v>
       </c>
       <c r="R6" t="n">
-        <v>6397800</v>
+        <v>6397845</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112363550</v>
+        <v>112363369</v>
       </c>
       <c r="B7" t="n">
-        <v>5135</v>
+        <v>93553</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1267,27 +1267,27 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>105930</v>
+        <v>2180</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1296,10 +1296,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>721928</v>
+        <v>721921</v>
       </c>
       <c r="R7" t="n">
-        <v>6397835</v>
+        <v>6397800</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>

--- a/artfynd/A 2085-2023.xlsx
+++ b/artfynd/A 2085-2023.xlsx
@@ -1037,10 +1037,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112363523</v>
+        <v>112363391</v>
       </c>
       <c r="B5" t="n">
-        <v>85252</v>
+        <v>73772</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1053,27 +1053,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3712</v>
+        <v>6426</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blå slemspindling</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Cortinarius salor</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>bålar</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1082,10 +1082,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>721925</v>
+        <v>721924</v>
       </c>
       <c r="R5" t="n">
-        <v>6397844</v>
+        <v>6397845</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1144,10 +1144,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112363391</v>
+        <v>112363369</v>
       </c>
       <c r="B6" t="n">
-        <v>73772</v>
+        <v>93553</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1160,27 +1160,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6426</v>
+        <v>2180</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bålar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>721924</v>
+        <v>721921</v>
       </c>
       <c r="R6" t="n">
-        <v>6397845</v>
+        <v>6397800</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112363369</v>
+        <v>112363523</v>
       </c>
       <c r="B7" t="n">
-        <v>93553</v>
+        <v>85252</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1267,27 +1267,27 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2180</v>
+        <v>3712</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Blå slemspindling</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Cortinarius salor</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1296,10 +1296,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>721921</v>
+        <v>721925</v>
       </c>
       <c r="R7" t="n">
-        <v>6397800</v>
+        <v>6397844</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
